--- a/TrainingManagmentSystem/Content/import-file-employee.xlsx
+++ b/TrainingManagmentSystem/Content/import-file-employee.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanivz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\guy\Learn AspNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23626987-1CCE-4E44-A053-F6D9F96B0308}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>EmployeeZehut</t>
   </si>
@@ -75,12 +76,15 @@
   </si>
   <si>
     <t>דוד</t>
+  </si>
+  <si>
+    <t>NumberOfTrainings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +410,7 @@
     <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +447,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12354</v>
       </c>
@@ -481,8 +488,11 @@
       <c r="L2">
         <v>200</v>
       </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>187541</v>
       </c>
@@ -518,6 +528,9 @@
       </c>
       <c r="L3">
         <v>200</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
